--- a/Coherence/Evaluation.xlsx
+++ b/Coherence/Evaluation.xlsx
@@ -53,14 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,7 +141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -150,6 +152,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -229,13 +239,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -344,97 +354,171 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="0" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="4" t="n">
+        <f aca="false">AVERAGE(B5:Y5)</f>
+        <v>180.708333333333</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>210</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="G5" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>180</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <f aca="false">STDEV(B5:M5,N5:Y5)</f>
+        <v>14.9331238662846</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <f aca="false">AVERAGE(B5:G5, N5:S5)</f>
+        <v>178.25</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <f aca="false">AVERAGE(H5:M5, T5:Y5)</f>
+        <v>183.166666666667</v>
       </c>
     </row>
   </sheetData>
